--- a/data/testcase.xlsx
+++ b/data/testcase.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用户操作" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,138 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>A</t>
+    <t>用例名称</t>
   </si>
   <si>
-    <t>B</t>
+    <t>请求数据</t>
   </si>
   <si>
-    <t>C</t>
+    <t>预期结果</t>
   </si>
   <si>
-    <t>D</t>
+    <t>查找指定成员</t>
   </si>
   <si>
-    <t>a1</t>
+    <t>{'userid': 'laozhang123'}</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>b6</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>d6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>b7</t>
-  </si>
-  <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>d7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>d8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>d9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>b10</t>
-  </si>
-  <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>d10</t>
+    <t>{'errmsg': 'ok'}</t>
   </si>
 </sst>
 </file>
@@ -160,14 +46,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,48 +504,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,97 +558,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,15 +1001,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,148 +1024,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
